--- a/trunk/HeadMovement/research/kepaf/stat.xlsx
+++ b/trunk/HeadMovement/research/kepaf/stat.xlsx
@@ -16,15 +16,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Shake</t>
+    <t>Fejrázás</t>
   </si>
   <si>
-    <t>Node</t>
+    <t>Bólintás</t>
   </si>
   <si>
-    <t>Circle</t>
+    <t>Körkörös mozgás</t>
+  </si>
+  <si>
+    <t>15 db</t>
+  </si>
+  <si>
+    <t>10 db</t>
+  </si>
+  <si>
+    <t>5 db</t>
   </si>
 </sst>
 </file>
@@ -235,11 +244,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -260,50 +269,38 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Munka1!$A$2</c:f>
+              <c:f>Munka1!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>5 db</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Munka1!$B$1:$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Shake</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Node</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Circle</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:dLblPos val="inEnd"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$B$7:$D$7</c:f>
+              <c:f>Munka1!$B$21:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>43.139433333333329</c:v>
+                  <c:v>42.436120000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.8626</c:v>
+                  <c:v>27.398800000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7274966666666671</c:v>
+                  <c:v>10.382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -318,11 +315,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10 db</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:dLblPos val="inEnd"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Munka1!$B$14:$D$14</c:f>
@@ -330,89 +332,117 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>44.364440000000002</c:v>
+                  <c:v>42.715760000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.98686</c:v>
+                  <c:v>32.359459999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2703180000000005</c:v>
+                  <c:v>8.7906179999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Munka1!$A$16</c:f>
+              <c:f>Munka1!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>15 db</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:dLblPos val="inEnd"/>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Munka1!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Fejrázás</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bólintás</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Körkörös mozgás</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Munka1!$B$21:$D$21</c:f>
+              <c:f>Munka1!$B$7:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>44.365819999999999</c:v>
+                  <c:v>45.411540000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.039200000000001</c:v>
+                  <c:v>32.718800000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.7013220000000002</c:v>
+                  <c:v>5.585934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="99298688"/>
-        <c:axId val="99172352"/>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:axId val="84890752"/>
+        <c:axId val="84892288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99298688"/>
+        <c:axId val="84890752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99172352"/>
+        <c:crossAx val="84892288"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99172352"/>
+        <c:axId val="84892288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99298688"/>
+        <c:crossAx val="84890752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -738,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="R17:S17"/>
+      <selection activeCell="F19" sqref="F19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -758,80 +788,80 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="12">
-        <v>5</v>
+      <c r="A2" s="14" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>40.142800000000001</v>
+        <v>47.854700000000001</v>
       </c>
       <c r="C2" s="3">
-        <v>29.986799999999999</v>
+        <v>33.567999999999998</v>
       </c>
       <c r="D2" s="4">
-        <v>2.9009900000000002</v>
+        <v>5.4850000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="12"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="5">
-        <v>42.619500000000002</v>
+        <v>45.54</v>
       </c>
       <c r="C3" s="6">
-        <v>26.287400000000002</v>
+        <v>30.25</v>
       </c>
       <c r="D3" s="7">
-        <v>4.03695</v>
+        <v>7.585</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="12"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="5">
-        <v>38.459800000000001</v>
+        <v>48.573999999999998</v>
       </c>
       <c r="C4" s="6">
-        <v>29.139800000000001</v>
+        <v>32.567999999999998</v>
       </c>
       <c r="D4" s="7">
-        <v>5.6008100000000001</v>
+        <v>4.5895000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="12"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="5">
-        <v>42.880200000000002</v>
+        <v>43.543999999999997</v>
       </c>
       <c r="C5" s="6">
-        <v>29.3155</v>
+        <v>35.658000000000001</v>
       </c>
       <c r="D5" s="7">
-        <v>5.7511799999999997</v>
+        <v>5.2546999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A6" s="12"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="8">
-        <v>48.078299999999999</v>
+        <v>41.545000000000002</v>
       </c>
       <c r="C6" s="9">
-        <v>31.1325</v>
+        <v>31.55</v>
       </c>
       <c r="D6" s="10">
-        <v>5.8304999999999998</v>
+        <v>5.0154699999999997</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13">
-        <f>AVERAGE(B4:B6)</f>
-        <v>43.139433333333329</v>
-      </c>
-      <c r="C7" s="13">
-        <f t="shared" ref="C7:D7" si="0">AVERAGE(C4:C6)</f>
-        <v>29.8626</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="A7" s="14"/>
+      <c r="B7" s="12">
+        <f>AVERAGE(B2:B6)</f>
+        <v>45.411540000000002</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" ref="C7:D7" si="0">AVERAGE(C2:C6)</f>
+        <v>32.718800000000002</v>
+      </c>
+      <c r="D7" s="12">
         <f t="shared" si="0"/>
-        <v>5.7274966666666671</v>
+        <v>5.585934</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1">
@@ -840,80 +870,80 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="12">
-        <v>10</v>
+      <c r="A9" s="14" t="s">
+        <v>4</v>
       </c>
       <c r="B9" s="2">
-        <v>37.6449</v>
+        <v>43.548000000000002</v>
       </c>
       <c r="C9" s="3">
-        <v>26.2319</v>
+        <v>35.89</v>
       </c>
       <c r="D9" s="4">
-        <v>3.0829300000000002</v>
+        <v>7.8944999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="12"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="5">
-        <v>49.788400000000003</v>
+        <v>40.5488</v>
       </c>
       <c r="C10" s="6">
         <v>30.220800000000001</v>
       </c>
       <c r="D10" s="7">
-        <v>5.0183900000000001</v>
+        <v>9.5478900000000007</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="12"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="5">
-        <v>44.462699999999998</v>
+        <v>42.567999999999998</v>
       </c>
       <c r="C11" s="6">
         <v>30.609300000000001</v>
       </c>
       <c r="D11" s="7">
-        <v>5.1764799999999997</v>
+        <v>10.2547</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="12"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="5">
-        <v>45.286900000000003</v>
+        <v>41.256</v>
       </c>
       <c r="C12" s="6">
-        <v>28.045100000000001</v>
+        <v>35.25</v>
       </c>
       <c r="D12" s="7">
-        <v>6.3674900000000001</v>
+        <v>8.6579999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="8">
-        <v>44.639299999999999</v>
+        <v>45.658000000000001</v>
       </c>
       <c r="C13" s="9">
         <v>29.827200000000001</v>
       </c>
       <c r="D13" s="10">
-        <v>6.7062999999999997</v>
+        <v>7.5979999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13">
+      <c r="A14" s="14"/>
+      <c r="B14" s="12">
         <f>AVERAGE(B9:B13)</f>
-        <v>44.364440000000002</v>
-      </c>
-      <c r="C14" s="13">
+        <v>42.715760000000003</v>
+      </c>
+      <c r="C14" s="12">
         <f t="shared" ref="C14:D14" si="1">AVERAGE(C9:C13)</f>
-        <v>28.98686</v>
-      </c>
-      <c r="D14" s="13">
+        <v>32.359459999999999</v>
+      </c>
+      <c r="D14" s="12">
         <f t="shared" si="1"/>
-        <v>5.2703180000000005</v>
+        <v>8.7906179999999985</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" thickBot="1">
@@ -922,86 +952,102 @@
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="12">
-        <v>15</v>
+      <c r="A16" s="14" t="s">
+        <v>5</v>
       </c>
       <c r="B16" s="2">
-        <v>43.795999999999999</v>
+        <v>40.142800000000001</v>
       </c>
       <c r="C16" s="3">
-        <v>31.207699999999999</v>
+        <v>28.257999999999999</v>
       </c>
       <c r="D16" s="4">
-        <v>6.6516000000000002</v>
+        <v>10.568</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="12"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="5">
-        <v>45.645000000000003</v>
+        <v>42.619500000000002</v>
       </c>
       <c r="C17" s="6">
-        <v>27.4861</v>
+        <v>25.875</v>
       </c>
       <c r="D17" s="7">
-        <v>7.2162600000000001</v>
+        <v>11.58</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="12"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="5">
-        <v>52.0777</v>
+        <v>38.459800000000001</v>
       </c>
       <c r="C18" s="6">
-        <v>29.386700000000001</v>
+        <v>29.587</v>
       </c>
       <c r="D18" s="7">
-        <v>7.2947300000000004</v>
+        <v>9.8539999999999992</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="12"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="5">
-        <v>40.1494</v>
+        <v>42.880200000000002</v>
       </c>
       <c r="C19" s="6">
-        <v>30.223600000000001</v>
+        <v>27.588999999999999</v>
       </c>
       <c r="D19" s="7">
-        <v>7.61876</v>
+        <v>9.6579999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A20" s="12"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="8">
-        <v>40.161000000000001</v>
+        <v>48.078299999999999</v>
       </c>
       <c r="C20" s="9">
-        <v>31.8919</v>
+        <v>25.684999999999999</v>
       </c>
       <c r="D20" s="10">
-        <v>9.7252600000000005</v>
+        <v>10.25</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13">
+      <c r="A21" s="14"/>
+      <c r="B21" s="12">
         <f>AVERAGE(B16:B20)</f>
-        <v>44.365819999999999</v>
-      </c>
-      <c r="C21" s="13">
-        <f>AVERAGE(C16:C20)</f>
-        <v>30.039200000000001</v>
-      </c>
-      <c r="D21" s="13">
-        <f>AVERAGE(D16:D20)</f>
-        <v>7.7013220000000002</v>
+        <v>42.436120000000003</v>
+      </c>
+      <c r="C21" s="12">
+        <f t="shared" ref="C21:D21" si="2">AVERAGE(C16:C20)</f>
+        <v>27.398800000000001</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="2"/>
+        <v>10.382</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1"/>
+    <row r="30" spans="1:4">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="3:3" ht="15.75" thickBot="1">
+      <c r="C34" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A16:D21">
